--- a/results/summary(601,1).xlsx
+++ b/results/summary(601,1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A452D66-8D10-1141-B00E-7684B474D441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81C8F6-63DE-884C-8F33-41B39C806241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{7362F4C9-3B51-354B-BC5A-47685D37CD6E}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Year</t>
   </si>
@@ -99,16 +99,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>Not a wrong winner election, with this imputed data!</t>
-  </si>
-  <si>
-    <t>Wrong winner result corrected.</t>
-  </si>
-  <si>
     <t>Δ Gap</t>
-  </si>
-  <si>
-    <t>Wrong winner result NOT corrected.</t>
   </si>
   <si>
     <t>Nominal Control</t>
@@ -116,12 +107,30 @@
   <si>
     <t>List Control</t>
   </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/2000_United_States_House_of_Representatives_elections</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/2012_United_States_House_of_Representatives_elections</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/1998_United_States_House_of_Representatives_elections</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,13 +146,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="20">
@@ -420,10 +443,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -463,14 +487,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEE04D2-B434-8441-B969-876A60AC5E8F}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,10 +842,13 @@
     <col min="17" max="17" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="75.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -842,7 +876,7 @@
       <c r="Q1" s="12"/>
       <c r="R1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -896,16 +930,25 @@
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="31" t="s">
+      <c r="X2" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>1972</v>
       </c>
@@ -957,21 +1000,20 @@
       <c r="Q3" s="16">
         <v>0.53</v>
       </c>
-      <c r="R3" s="34"/>
       <c r="S3" t="str">
         <f>IF(OR(AND(B3&gt;0.5,F3&gt;218), AND(B3&lt;0.5,E3&gt;218)), "Right", "Wrong")</f>
         <v>Right</v>
       </c>
-      <c r="T3" t="str">
-        <f>IF(ABS(Q3-B3)&lt;ABS(G3-B3), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T3" s="1">
+        <f>ABS(Q3-B3)-ABS(G3-B3)</f>
+        <v>-2.990783410138198E-2</v>
       </c>
       <c r="U3" t="str">
         <f>IF(OR(AND(B3&gt;0.5,P3&gt;301), AND(B3&lt;0.5,O3&gt;301)), "Right", "Wrong")</f>
         <v>Right</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1974</v>
       </c>
@@ -1023,21 +1065,20 @@
       <c r="Q4" s="14">
         <v>0.57903494176372705</v>
       </c>
-      <c r="R4" s="34"/>
       <c r="S4" t="str">
         <f t="shared" ref="S4:S28" si="0">IF(OR(AND(B4&gt;0.5,F4&gt;218), AND(B4&lt;0.5,E4&gt;218)), "Right", "Wrong")</f>
         <v>Right</v>
       </c>
-      <c r="T4" t="str">
-        <f>IF(ABS(Q4-B4)&lt;ABS(G4-B4), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T28" si="1">ABS(Q4-B4)-ABS(G4-B4)</f>
+        <v>-8.7631724902938912E-2</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:U28" si="1">IF(OR(AND(B4&gt;0.5,P4&gt;301), AND(B4&lt;0.5,O4&gt;301)), "Right", "Wrong")</f>
+        <f t="shared" ref="U4:U28" si="2">IF(OR(AND(B4&gt;0.5,P4&gt;301), AND(B4&lt;0.5,O4&gt;301)), "Right", "Wrong")</f>
         <v>Right</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1976</v>
       </c>
@@ -1089,21 +1130,20 @@
       <c r="Q5" s="14">
         <v>0.57404326123128102</v>
       </c>
-      <c r="R5" s="34"/>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T5" t="str">
-        <f>IF(ABS(Q5-B5)&lt;ABS(G5-B5), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.8025704285960016E-2</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1978</v>
       </c>
@@ -1155,21 +1195,20 @@
       <c r="Q6" s="14">
         <v>0.54242928452578998</v>
       </c>
-      <c r="R6" s="34"/>
       <c r="S6" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T6" t="str">
-        <f>IF(ABS(Q6-B6)&lt;ABS(G6-B6), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T6" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.2053474094899057E-2</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1980</v>
       </c>
@@ -1221,21 +1260,20 @@
       <c r="Q7" s="14">
         <v>0.51333333333333298</v>
       </c>
-      <c r="R7" s="34"/>
       <c r="S7" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T7" t="str">
-        <f>IF(ABS(Q7-B7)&lt;ABS(G7-B7), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T7" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.4270353302610976E-2</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>1982</v>
       </c>
@@ -1287,21 +1325,20 @@
       <c r="Q8" s="14">
         <v>0.54575707154742004</v>
       </c>
-      <c r="R8" s="34"/>
       <c r="S8" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T8" t="str">
-        <f>IF(ABS(Q8-B8)&lt;ABS(G8-B8), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T8" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.7915511701250098E-2</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>1984</v>
       </c>
@@ -1353,21 +1390,20 @@
       <c r="Q9" s="14">
         <v>0.51081530782029905</v>
       </c>
-      <c r="R9" s="34"/>
       <c r="S9" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T9" t="str">
-        <f>IF(ABS(Q9-B9)&lt;ABS(G9-B9), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T9" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.0793887581999004E-2</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>1986</v>
       </c>
@@ -1419,21 +1455,20 @@
       <c r="Q10" s="14">
         <v>0.54575707154742004</v>
       </c>
-      <c r="R10" s="34"/>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T10" t="str">
-        <f>IF(ABS(Q10-B10)&lt;ABS(G10-B10), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T10" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.5047526153728978E-2</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>1988</v>
       </c>
@@ -1485,21 +1520,20 @@
       <c r="Q11" s="14">
         <v>0.52911813643926697</v>
       </c>
-      <c r="R11" s="34"/>
       <c r="S11" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T11" t="str">
-        <f>IF(ABS(Q11-B11)&lt;ABS(G11-B11), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T11" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.6284162411307079E-2</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>1990</v>
       </c>
@@ -1551,21 +1585,20 @@
       <c r="Q12" s="14">
         <v>0.543333333333333</v>
       </c>
-      <c r="R12" s="34"/>
       <c r="S12" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T12" t="str">
-        <f>IF(ABS(Q12-B12)&lt;ABS(G12-B12), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T12" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.4178187403993956E-2</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>1992</v>
       </c>
@@ -1617,21 +1650,20 @@
       <c r="Q13" s="14">
         <v>0.53500000000000003</v>
       </c>
-      <c r="R13" s="34"/>
       <c r="S13" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T13" t="str">
-        <f>IF(ABS(Q13-B13)&lt;ABS(G13-B13), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T13" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.9470046082948924E-2</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>1994</v>
       </c>
@@ -1683,21 +1715,20 @@
       <c r="Q14" s="14">
         <v>0.47</v>
       </c>
-      <c r="R14" s="34"/>
       <c r="S14" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T14" t="str">
-        <f>IF(ABS(Q14-B14)&lt;ABS(G14-B14), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T14" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.2616765290870449E-3</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>1996</v>
       </c>
@@ -1749,21 +1780,20 @@
       <c r="Q15" s="14">
         <v>0.49666666666666598</v>
       </c>
-      <c r="R15" s="34"/>
       <c r="S15" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T15" t="str">
-        <f>IF(ABS(Q15-B15)&lt;ABS(G15-B15), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T15" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.2012288786481982E-2</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Right</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>1998</v>
       </c>
@@ -1815,24 +1845,23 @@
       <c r="Q16" s="30">
         <v>0.495</v>
       </c>
-      <c r="R16" s="34"/>
-      <c r="S16" t="str">
+      <c r="S16" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Wrong</v>
       </c>
-      <c r="T16" t="str">
-        <f>IF(ABS(Q16-B16)&lt;ABS(G16-B16), "Smaller", "Larger")</f>
-        <v>Smaller</v>
-      </c>
-      <c r="U16" t="str">
+      <c r="T16" s="1">
         <f t="shared" si="1"/>
+        <v>-6.5207373271889968E-3</v>
+      </c>
+      <c r="U16" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>Wrong</v>
       </c>
-      <c r="V16" t="s">
-        <v>13</v>
+      <c r="X16" s="34" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>2000</v>
       </c>
@@ -1884,24 +1913,30 @@
       <c r="Q17" s="16">
         <v>0.495826377295492</v>
       </c>
-      <c r="R17" s="34"/>
       <c r="S17" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T17" t="str">
-        <f>IF(ABS(Q17-B17)&lt;ABS(G17-B17), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T17" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.5284558174320013E-3</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
-      </c>
-      <c r="V17" t="s">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.50293345064952899</v>
+      </c>
+      <c r="W17" s="1">
+        <f>B17-V17</f>
+        <v>-3.7909697588309754E-3</v>
+      </c>
+      <c r="X17" s="34" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>2002</v>
       </c>
@@ -1953,21 +1988,27 @@
       <c r="Q18" s="14">
         <v>0.478333333333333</v>
       </c>
-      <c r="R18" s="34"/>
       <c r="S18" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T18" t="str">
-        <f>IF(ABS(Q18-B18)&lt;ABS(G18-B18), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T18" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.9831029185870022E-3</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.48271559823996002</v>
+      </c>
+      <c r="W18" s="1">
+        <f>B18-V18</f>
+        <v>-1.5434283692229989E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>2004</v>
       </c>
@@ -2019,21 +2060,27 @@
       <c r="Q19" s="14">
         <v>0.495</v>
       </c>
-      <c r="R19" s="34"/>
       <c r="S19" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T19" t="str">
-        <f>IF(ABS(Q19-B19)&lt;ABS(G19-B19), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T19" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.5788372641646962E-2</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.491927995184476</v>
+      </c>
+      <c r="W19" s="1">
+        <f>B19-V19</f>
+        <v>1.1850851455639799E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>2006</v>
       </c>
@@ -2085,21 +2132,27 @@
       <c r="Q20" s="14">
         <v>0.52911813643926697</v>
       </c>
-      <c r="R20" s="34"/>
       <c r="S20" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T20" t="str">
-        <f>IF(ABS(Q20-B20)&lt;ABS(G20-B20), "Smaller", "Larger")</f>
-        <v>Larger</v>
+      <c r="T20" s="37">
+        <f t="shared" si="1"/>
+        <v>2.8195832266089127E-3</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.53518595740931296</v>
+      </c>
+      <c r="W20" s="1">
+        <f>B20-V20</f>
+        <v>-1.401005622352014E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>2008</v>
       </c>
@@ -2151,21 +2204,27 @@
       <c r="Q21" s="14">
         <v>0.54742096505823601</v>
       </c>
-      <c r="R21" s="34"/>
       <c r="S21" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T21" t="str">
-        <f>IF(ABS(Q21-B21)&lt;ABS(G21-B21), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T21" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.3383632642913006E-2</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.54676124657067704</v>
+      </c>
+      <c r="W21" s="1">
+        <f>B21-V21</f>
+        <v>-4.1895588445106657E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>2010</v>
       </c>
@@ -2217,21 +2276,27 @@
       <c r="Q22" s="14">
         <v>0.47753743760399298</v>
       </c>
-      <c r="R22" s="34"/>
       <c r="S22" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T22" t="str">
-        <f>IF(ABS(Q22-B22)&lt;ABS(G22-B22), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T22" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.262746737329302E-2</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.47229379948075301</v>
+      </c>
+      <c r="W22" s="1">
+        <f>B22-V22</f>
+        <v>-3.7226653234001539E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>2012</v>
       </c>
@@ -2283,24 +2348,30 @@
       <c r="Q23" s="14">
         <v>0.50915141430948396</v>
       </c>
-      <c r="R23" s="34"/>
-      <c r="S23" t="str">
+      <c r="S23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Wrong</v>
       </c>
-      <c r="T23" t="str">
-        <f>IF(ABS(Q23-B23)&lt;ABS(G23-B23), "Smaller", "Larger")</f>
-        <v>Smaller</v>
-      </c>
-      <c r="U23" t="str">
+      <c r="T23" s="1">
         <f t="shared" si="1"/>
-        <v>Right</v>
-      </c>
-      <c r="V23" t="s">
-        <v>11</v>
+        <v>-4.7082448792242937E-2</v>
+      </c>
+      <c r="U23" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.50850447261645204</v>
+      </c>
+      <c r="W23" s="1">
+        <f>B23-V23</f>
+        <v>3.7587911879599645E-3</v>
+      </c>
+      <c r="X23" s="34" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>2014</v>
       </c>
@@ -2352,21 +2423,27 @@
       <c r="Q24" s="14">
         <v>0.47088186356073197</v>
       </c>
-      <c r="R24" s="34"/>
       <c r="S24" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T24" t="str">
-        <f>IF(ABS(Q24-B24)&lt;ABS(G24-B24), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T24" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.8697955514754967E-2</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.47435025771929601</v>
+      </c>
+      <c r="W24" s="1">
+        <f>B24-V24</f>
+        <v>2.250243196950108E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>2016</v>
       </c>
@@ -2418,21 +2495,27 @@
       <c r="Q25" s="14">
         <v>0.48918469217970001</v>
       </c>
-      <c r="R25" s="34"/>
       <c r="S25" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T25" t="str">
-        <f>IF(ABS(Q25-B25)&lt;ABS(G25-B25), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T25" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.3207680685448002E-2</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.49532586719032001</v>
+      </c>
+      <c r="W25" s="1">
+        <f>B25-V25</f>
+        <v>-2.0530508015519922E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>2018</v>
       </c>
@@ -2484,21 +2567,27 @@
       <c r="Q26" s="14">
         <v>0.53577371048252898</v>
       </c>
-      <c r="R26" s="34"/>
       <c r="S26" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T26" t="str">
-        <f>IF(ABS(Q26-B26)&lt;ABS(G26-B26), "Smaller", "Larger")</f>
-        <v>Smaller</v>
+      <c r="T26" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.6446159200920185E-3</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.53540252507699704</v>
+      </c>
+      <c r="W26" s="1">
+        <f>B26-V26</f>
+        <v>1.7769647329569649E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>2020</v>
       </c>
@@ -2550,21 +2639,27 @@
       <c r="Q27" s="14">
         <v>0.50582362728785302</v>
       </c>
-      <c r="R27" s="34"/>
       <c r="S27" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T27" t="str">
-        <f>IF(ABS(Q27-B27)&lt;ABS(G27-B27), "Smaller", "Larger")</f>
-        <v>Larger</v>
+      <c r="T27" s="37">
+        <f t="shared" si="1"/>
+        <v>4.521200298353012E-3</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.51076060541342405</v>
+      </c>
+      <c r="W27" s="1">
+        <f>B27-V27</f>
+        <v>3.6536272028597772E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>2022</v>
       </c>
@@ -2616,21 +2711,32 @@
       <c r="Q28" s="20">
         <v>0.48918469217970001</v>
       </c>
-      <c r="R28" s="34"/>
       <c r="S28" t="str">
         <f t="shared" si="0"/>
         <v>Right</v>
       </c>
-      <c r="T28" t="str">
-        <f>IF(ABS(Q28-B28)&lt;ABS(G28-B28), "Smaller", "Larger")</f>
-        <v>Larger</v>
+      <c r="T28" s="37">
+        <f t="shared" si="1"/>
+        <v>4.7048023409301809E-4</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <f t="shared" si="2"/>
+        <v>Right</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.48809924912070302</v>
+      </c>
+      <c r="W28" s="1">
+        <f>B28-V28</f>
+        <v>1.8957267476549799E-3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X17" r:id="rId1" xr:uid="{AF2C98E9-2747-914F-971E-C9A58C28E0B6}"/>
+    <hyperlink ref="X23" r:id="rId2" xr:uid="{873921A0-C661-C348-B774-8F470EF41DCA}"/>
+    <hyperlink ref="X16" r:id="rId3" xr:uid="{4EA02F1A-D300-A940-AB91-CE1644984CE5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/summary(601,1).xlsx
+++ b/results/summary(601,1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81C8F6-63DE-884C-8F33-41B39C806241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1BB6BB-0656-524D-8C22-85207DEBA134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{7362F4C9-3B51-354B-BC5A-47685D37CD6E}"/>
   </bookViews>
@@ -821,7 +821,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
